--- a/PO/data/qq.xlsx
+++ b/PO/data/qq.xlsx
@@ -427,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
